--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="85">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,6 +46,9 @@
     <t>useless</t>
   </si>
   <si>
+    <t>stopped</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
@@ -64,217 +67,205 @@
     <t>loves</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>amazing</t>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>awesome</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>glad</t>
   </si>
   <si>
     <t>husband</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>bread</t>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>cooking</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
+    <t>popcorn</t>
+  </si>
+  <si>
     <t>old</t>
   </si>
   <si>
-    <t>cream</t>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>cooking</t>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>exactly</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>works</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>pan</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>cook</t>
+    <t>every</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
     <t>quality</t>
   </si>
   <si>
-    <t>clean</t>
+    <t>coffee</t>
   </si>
   <si>
     <t>bought</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
     <t>makes</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>coffee</t>
+    <t>hot</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
     <t>also</t>
   </si>
   <si>
-    <t>hot</t>
+    <t>really</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>really</t>
+    <t>one</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>used</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>use</t>
-  </si>
-  <si>
-    <t>used</t>
   </si>
   <si>
     <t>positive</t>
@@ -635,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,10 +634,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -725,16 +716,16 @@
         <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K3">
-        <v>0.967741935483871</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -746,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -754,13 +745,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -772,19 +763,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4">
-        <v>0.8984375</v>
+        <v>0.8606811145510835</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>556</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>556</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -796,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -804,13 +795,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3798449612403101</v>
+        <v>0.4150943396226415</v>
       </c>
       <c r="C5">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -822,19 +813,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>0.8840579710144928</v>
+        <v>0.859375</v>
       </c>
       <c r="L5">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="M5">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -846,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -854,13 +845,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3636363636363636</v>
+        <v>0.3875968992248062</v>
       </c>
       <c r="C6">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D6">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -872,19 +863,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K6">
-        <v>0.8792569659442725</v>
+        <v>0.8405797101449275</v>
       </c>
       <c r="L6">
-        <v>568</v>
+        <v>58</v>
       </c>
       <c r="M6">
-        <v>568</v>
+        <v>58</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -896,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>78</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -904,13 +895,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.282051282051282</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -922,19 +913,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>0.7586206896551724</v>
+        <v>0.75</v>
       </c>
       <c r="L7">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -946,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -954,13 +945,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1297297297297297</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -972,19 +963,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>161</v>
+        <v>53</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K8">
-        <v>0.7359307359307359</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L8">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="M8">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -996,21 +987,45 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.1513513513513514</v>
+      </c>
+      <c r="C9">
+        <v>28</v>
+      </c>
+      <c r="D9">
+        <v>28</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>157</v>
+      </c>
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K9">
-        <v>0.71875</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L9">
-        <v>46</v>
+        <v>168</v>
       </c>
       <c r="M9">
-        <v>46</v>
+        <v>168</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1022,21 +1037,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K10">
-        <v>0.7173913043478261</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="L10">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="M10">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1048,21 +1063,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K11">
-        <v>0.7084745762711865</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L11">
-        <v>209</v>
+        <v>32</v>
       </c>
       <c r="M11">
-        <v>209</v>
+        <v>32</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1074,47 +1089,47 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>86</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12">
+        <v>0.6883116883116883</v>
+      </c>
+      <c r="L12">
+        <v>53</v>
+      </c>
+      <c r="M12">
+        <v>53</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>24</v>
-      </c>
-      <c r="K12">
-        <v>0.6888888888888889</v>
-      </c>
-      <c r="L12">
-        <v>31</v>
-      </c>
-      <c r="M12">
-        <v>31</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K13">
-        <v>0.6623376623376623</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="L13">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M13">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1126,21 +1141,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K14">
-        <v>0.6575342465753424</v>
+        <v>0.6524879614767255</v>
       </c>
       <c r="L14">
-        <v>48</v>
+        <v>813</v>
       </c>
       <c r="M14">
-        <v>48</v>
+        <v>813</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1152,21 +1167,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>25</v>
+        <v>433</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.647887323943662</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="L15">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M15">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1178,21 +1193,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.6468699839486356</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L16">
-        <v>806</v>
+        <v>43</v>
       </c>
       <c r="M16">
-        <v>806</v>
+        <v>43</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1204,47 +1219,47 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>440</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17">
+        <v>0.5857142857142857</v>
+      </c>
+      <c r="L17">
+        <v>41</v>
+      </c>
+      <c r="M17">
+        <v>41</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>29</v>
-      </c>
-      <c r="K17">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="L17">
-        <v>28</v>
-      </c>
-      <c r="M17">
-        <v>28</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>16</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>0.6323529411764706</v>
+        <v>0.5828571428571429</v>
       </c>
       <c r="L18">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="M18">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1256,21 +1271,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>25</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K19">
-        <v>0.6153846153846154</v>
+        <v>0.5783132530120482</v>
       </c>
       <c r="L19">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="M19">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1282,21 +1297,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K20">
-        <v>0.6114285714285714</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="L20">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="M20">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1308,21 +1323,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>68</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K21">
-        <v>0.543859649122807</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1334,21 +1349,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>0.5329341317365269</v>
+        <v>0.515625</v>
       </c>
       <c r="L22">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="M22">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1360,21 +1375,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>78</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.5301204819277109</v>
+        <v>0.5131578947368421</v>
       </c>
       <c r="L23">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1386,21 +1401,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.5288461538461539</v>
+        <v>0.51</v>
       </c>
       <c r="L24">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M24">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1417,16 +1432,16 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K25">
-        <v>0.5285714285714286</v>
+        <v>0.4970059880239521</v>
       </c>
       <c r="L25">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="M25">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1438,21 +1453,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>33</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>0.5131578947368421</v>
+        <v>0.4903846153846154</v>
       </c>
       <c r="L26">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="M26">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1464,21 +1479,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>0.5128205128205128</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="L27">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="M27">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1490,21 +1505,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>0.4861111111111111</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L28">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1516,12 +1531,12 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K29">
         <v>0.4583333333333333</v>
@@ -1547,16 +1562,16 @@
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>0.4489795918367347</v>
+        <v>0.456140350877193</v>
       </c>
       <c r="L30">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M30">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1568,21 +1583,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>0.4444444444444444</v>
+        <v>0.4511278195488722</v>
       </c>
       <c r="L31">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="M31">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1594,21 +1609,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>35</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>0.4307692307692308</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="L32">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="M32">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1620,21 +1635,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>37</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>0.42</v>
+        <v>0.4046692607003891</v>
       </c>
       <c r="L33">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="M33">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1646,21 +1661,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>58</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>0.4197530864197531</v>
+        <v>0.3946078431372549</v>
       </c>
       <c r="L34">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="M34">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1672,47 +1687,47 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>47</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K35">
-        <v>0.4156626506024096</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="L35">
+        <v>42</v>
+      </c>
+      <c r="M35">
+        <v>42</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
         <v>69</v>
-      </c>
-      <c r="M35">
-        <v>69</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>97</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K36">
-        <v>0.3970588235294117</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="L36">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="M36">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1724,21 +1739,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>246</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K37">
-        <v>0.3834586466165413</v>
+        <v>0.3589041095890411</v>
       </c>
       <c r="L37">
-        <v>51</v>
+        <v>262</v>
       </c>
       <c r="M37">
-        <v>51</v>
+        <v>262</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1750,21 +1765,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>82</v>
+        <v>468</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K38">
-        <v>0.3813229571984436</v>
+        <v>0.3552631578947368</v>
       </c>
       <c r="L38">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="M38">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1776,21 +1791,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>159</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K39">
-        <v>0.3794520547945205</v>
+        <v>0.3458646616541353</v>
       </c>
       <c r="L39">
-        <v>277</v>
+        <v>46</v>
       </c>
       <c r="M39">
-        <v>277</v>
+        <v>46</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1802,21 +1817,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>453</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K40">
-        <v>0.3458646616541353</v>
+        <v>0.3253588516746411</v>
       </c>
       <c r="L40">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="M40">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1828,21 +1843,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>87</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K41">
-        <v>0.3235294117647059</v>
+        <v>0.3240740740740741</v>
       </c>
       <c r="L41">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="M41">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1854,21 +1869,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K42">
-        <v>0.304635761589404</v>
+        <v>0.3237410071942446</v>
       </c>
       <c r="L42">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M42">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1880,21 +1895,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K43">
-        <v>0.3014354066985646</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="L43">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="M43">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1906,21 +1921,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>146</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K44">
-        <v>0.2894736842105263</v>
+        <v>0.2658772874058127</v>
       </c>
       <c r="L44">
-        <v>22</v>
+        <v>247</v>
       </c>
       <c r="M44">
-        <v>22</v>
+        <v>247</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1932,21 +1947,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>54</v>
+        <v>682</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K45">
-        <v>0.2882882882882883</v>
+        <v>0.2649006622516556</v>
       </c>
       <c r="L45">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="M45">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1958,15 +1973,15 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>79</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K46">
-        <v>0.2871287128712871</v>
+        <v>0.2612612612612613</v>
       </c>
       <c r="L46">
         <v>29</v>
@@ -1984,47 +1999,47 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K47">
-        <v>0.2805755395683453</v>
+        <v>0.25</v>
       </c>
       <c r="L47">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="M47">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K48">
-        <v>0.2658772874058127</v>
+        <v>0.2475247524752475</v>
       </c>
       <c r="L48">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="M48">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2036,21 +2051,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>682</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K49">
-        <v>0.2442455242966752</v>
+        <v>0.233112582781457</v>
       </c>
       <c r="L49">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="M49">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2062,21 +2077,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K50">
-        <v>0.2281879194630873</v>
+        <v>0.2276214833759591</v>
       </c>
       <c r="L50">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="M50">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2088,47 +2103,47 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>115</v>
+        <v>604</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K51">
+        <v>0.1974921630094044</v>
+      </c>
+      <c r="L51">
         <v>63</v>
       </c>
-      <c r="K51">
-        <v>0.2232142857142857</v>
-      </c>
-      <c r="L51">
-        <v>25</v>
-      </c>
       <c r="M51">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="N51">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>87</v>
+        <v>256</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K52">
-        <v>0.2185430463576159</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="L52">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="M52">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2140,21 +2155,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>590</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K53">
-        <v>0.213166144200627</v>
+        <v>0.1890243902439024</v>
       </c>
       <c r="L53">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="M53">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2166,73 +2181,73 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>251</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K54">
-        <v>0.2037037037037037</v>
+        <v>0.1842818428184282</v>
       </c>
       <c r="L54">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="M54">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>86</v>
+        <v>301</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K55">
-        <v>0.1972972972972973</v>
+        <v>0.1644736842105263</v>
       </c>
       <c r="L55">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M55">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N55">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>297</v>
+        <v>381</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K56">
-        <v>0.1837708830548926</v>
+        <v>0.1555555555555556</v>
       </c>
       <c r="L56">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="M56">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2244,21 +2259,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>342</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K57">
-        <v>0.1754385964912281</v>
+        <v>0.1527446300715991</v>
       </c>
       <c r="L57">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="M57">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2270,21 +2285,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>376</v>
+        <v>355</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K58">
-        <v>0.1678832116788321</v>
+        <v>0.15</v>
       </c>
       <c r="L58">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M58">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2296,21 +2311,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>342</v>
+        <v>374</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K59">
-        <v>0.1646341463414634</v>
+        <v>0.1313868613138686</v>
       </c>
       <c r="L59">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="M59">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2322,21 +2337,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>137</v>
+        <v>357</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K60">
-        <v>0.1586715867158671</v>
+        <v>0.1291512915129151</v>
       </c>
       <c r="L60">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M60">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2348,21 +2363,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K61">
-        <v>0.1412429378531073</v>
+        <v>0.1218487394957983</v>
       </c>
       <c r="L61">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M61">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2374,47 +2389,47 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>152</v>
+        <v>209</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K62">
-        <v>0.141025641025641</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="L62">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="M62">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>134</v>
+        <v>255</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K63">
-        <v>0.1409090909090909</v>
+        <v>0.1083743842364532</v>
       </c>
       <c r="L63">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="M63">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2426,21 +2441,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>378</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K64">
-        <v>0.140893470790378</v>
+        <v>0.09289617486338798</v>
       </c>
       <c r="L64">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="M64">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2452,21 +2467,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>250</v>
+        <v>332</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K65">
-        <v>0.1338289962825279</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="L65">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="M65">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="N65">
         <v>0.97</v>
@@ -2478,99 +2493,99 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>233</v>
+        <v>636</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K66">
-        <v>0.1330049261083744</v>
+        <v>0.08029878618113913</v>
       </c>
       <c r="L66">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="M66">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>176</v>
+        <v>985</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K67">
-        <v>0.1008403361344538</v>
+        <v>0.06067961165048544</v>
       </c>
       <c r="L67">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M67">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>214</v>
+        <v>387</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K68">
-        <v>0.09928057553956834</v>
+        <v>0.05758157389635317</v>
       </c>
       <c r="L68">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="M68">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="N68">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O68">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>626</v>
+        <v>491</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K69">
-        <v>0.09836065573770492</v>
+        <v>0.05350553505535055</v>
       </c>
       <c r="L69">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="M69">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2582,137 +2597,33 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>330</v>
+        <v>513</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K70">
-        <v>0.08133086876155268</v>
+        <v>0.04423243712055507</v>
       </c>
       <c r="L70">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="M70">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N70">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="O70">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="71" spans="10:17">
-      <c r="J71" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K71">
-        <v>0.07663551401869159</v>
-      </c>
-      <c r="L71">
-        <v>82</v>
-      </c>
-      <c r="M71">
-        <v>84</v>
-      </c>
-      <c r="N71">
-        <v>0.98</v>
-      </c>
-      <c r="O71">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P71" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q71">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="72" spans="10:17">
-      <c r="J72" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K72">
-        <v>0.06598984771573604</v>
-      </c>
-      <c r="L72">
-        <v>26</v>
-      </c>
-      <c r="M72">
-        <v>26</v>
-      </c>
-      <c r="N72">
-        <v>1</v>
-      </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
-      <c r="P72" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="73" spans="10:17">
-      <c r="J73" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K73">
-        <v>0.06239168110918544</v>
-      </c>
-      <c r="L73">
-        <v>72</v>
-      </c>
-      <c r="M73">
-        <v>75</v>
-      </c>
-      <c r="N73">
-        <v>0.96</v>
-      </c>
-      <c r="O73">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P73" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q73">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="74" spans="10:17">
-      <c r="J74" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K74">
-        <v>0.04798464491362764</v>
-      </c>
-      <c r="L74">
-        <v>25</v>
-      </c>
-      <c r="M74">
-        <v>26</v>
-      </c>
-      <c r="N74">
-        <v>0.96</v>
-      </c>
-      <c r="O74">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P74" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q74">
-        <v>496</v>
+        <v>1102</v>
       </c>
     </row>
   </sheetData>
